--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H2">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.399451290637182</v>
+        <v>0.7209850000000001</v>
       </c>
       <c r="N2">
-        <v>0.399451290637182</v>
+        <v>2.162955</v>
       </c>
       <c r="O2">
-        <v>0.1054928779790186</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="P2">
-        <v>0.1054928779790186</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="Q2">
-        <v>58.05739538340002</v>
+        <v>117.087457147545</v>
       </c>
       <c r="R2">
-        <v>58.05739538340002</v>
+        <v>1053.787114327905</v>
       </c>
       <c r="S2">
-        <v>0.03977837740260228</v>
+        <v>0.0599587275387805</v>
       </c>
       <c r="T2">
-        <v>0.03977837740260228</v>
+        <v>0.0599587275387805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H3">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94651054678161</v>
+        <v>3.387303666666666</v>
       </c>
       <c r="N3">
-        <v>2.94651054678161</v>
+        <v>10.161911</v>
       </c>
       <c r="O3">
-        <v>0.7781571492226148</v>
+        <v>0.7203810354238886</v>
       </c>
       <c r="P3">
-        <v>0.7781571492226148</v>
+        <v>0.7203810354238885</v>
       </c>
       <c r="Q3">
-        <v>428.2542873825297</v>
+        <v>550.095734192189</v>
       </c>
       <c r="R3">
-        <v>428.2542873825297</v>
+        <v>4950.861607729701</v>
       </c>
       <c r="S3">
-        <v>0.293421028540587</v>
+        <v>0.281695760162526</v>
       </c>
       <c r="T3">
-        <v>0.293421028540587</v>
+        <v>0.281695760162526</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H4">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I4">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J4">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.440561938305941</v>
+        <v>0.1167496666666667</v>
       </c>
       <c r="N4">
-        <v>0.440561938305941</v>
+        <v>0.350249</v>
       </c>
       <c r="O4">
-        <v>0.1163499727983666</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="P4">
-        <v>0.1163499727983666</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="Q4">
-        <v>64.03253473609942</v>
+        <v>18.960063791651</v>
       </c>
       <c r="R4">
-        <v>64.03253473609942</v>
+        <v>170.640574124859</v>
       </c>
       <c r="S4">
-        <v>0.04387228045552457</v>
+        <v>0.009709163788303655</v>
       </c>
       <c r="T4">
-        <v>0.04387228045552457</v>
+        <v>0.009709163788303653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.38518200466839</v>
+        <v>162.399297</v>
       </c>
       <c r="H5">
-        <v>65.38518200466839</v>
+        <v>487.197891</v>
       </c>
       <c r="I5">
-        <v>0.1696326867167437</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J5">
-        <v>0.1696326867167437</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.399451290637182</v>
+        <v>0.4770616666666667</v>
       </c>
       <c r="N5">
-        <v>0.399451290637182</v>
+        <v>1.431185</v>
       </c>
       <c r="O5">
-        <v>0.1054928779790186</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="P5">
-        <v>0.1054928779790186</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="Q5">
-        <v>26.11819534031184</v>
+        <v>77.47447929231501</v>
       </c>
       <c r="R5">
-        <v>26.11819534031184</v>
+        <v>697.2703136308351</v>
       </c>
       <c r="S5">
-        <v>0.01789504032106252</v>
+        <v>0.03967351677339084</v>
       </c>
       <c r="T5">
-        <v>0.01789504032106252</v>
+        <v>0.03967351677339083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H6">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J6">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.94651054678161</v>
+        <v>0.7209850000000001</v>
       </c>
       <c r="N6">
-        <v>2.94651054678161</v>
+        <v>2.162955</v>
       </c>
       <c r="O6">
-        <v>0.7781571492226148</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="P6">
-        <v>0.7781571492226148</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="Q6">
-        <v>192.6581283799906</v>
+        <v>47.16493866419668</v>
       </c>
       <c r="R6">
-        <v>192.6581283799906</v>
+        <v>424.4844479777701</v>
       </c>
       <c r="S6">
-        <v>0.1320008879104742</v>
+        <v>0.02415245642568092</v>
       </c>
       <c r="T6">
-        <v>0.1320008879104742</v>
+        <v>0.02415245642568091</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H7">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J7">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.440561938305941</v>
+        <v>3.387303666666666</v>
       </c>
       <c r="N7">
-        <v>0.440561938305941</v>
+        <v>10.161911</v>
       </c>
       <c r="O7">
-        <v>0.1163499727983666</v>
+        <v>0.7203810354238886</v>
       </c>
       <c r="P7">
-        <v>0.1163499727983666</v>
+        <v>0.7203810354238885</v>
       </c>
       <c r="Q7">
-        <v>28.80622252046344</v>
+        <v>221.5884791990704</v>
       </c>
       <c r="R7">
-        <v>28.80622252046344</v>
+        <v>1994.296312791634</v>
       </c>
       <c r="S7">
-        <v>0.01973675848520696</v>
+        <v>0.1134721307790257</v>
       </c>
       <c r="T7">
-        <v>0.01973675848520696</v>
+        <v>0.1134721307790257</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>113.557180850918</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H8">
-        <v>113.557180850918</v>
+        <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J8">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.399451290637182</v>
+        <v>0.1167496666666667</v>
       </c>
       <c r="N8">
-        <v>0.399451290637182</v>
+        <v>0.350249</v>
       </c>
       <c r="O8">
-        <v>0.1054928779790186</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="P8">
-        <v>0.1054928779790186</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="Q8">
-        <v>45.36056245201908</v>
+        <v>7.637455519045113</v>
       </c>
       <c r="R8">
-        <v>45.36056245201908</v>
+        <v>68.737099671406</v>
       </c>
       <c r="S8">
-        <v>0.03107906513020454</v>
+        <v>0.003911026216744369</v>
       </c>
       <c r="T8">
-        <v>0.03107906513020454</v>
+        <v>0.003911026216744368</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>113.557180850918</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H9">
-        <v>113.557180850918</v>
+        <v>196.252094</v>
       </c>
       <c r="I9">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J9">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.94651054678161</v>
+        <v>0.4770616666666667</v>
       </c>
       <c r="N9">
-        <v>2.94651054678161</v>
+        <v>1.431185</v>
       </c>
       <c r="O9">
-        <v>0.7781571492226148</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="P9">
-        <v>0.7781571492226148</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="Q9">
-        <v>334.5974310400166</v>
+        <v>31.20811701682112</v>
       </c>
       <c r="R9">
-        <v>334.5974310400166</v>
+        <v>280.87305315139</v>
       </c>
       <c r="S9">
-        <v>0.2292514640375435</v>
+        <v>0.01598120781504384</v>
       </c>
       <c r="T9">
-        <v>0.2292514640375435</v>
+        <v>0.01598120781504384</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H10">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I10">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J10">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.440561938305941</v>
+        <v>0.7209850000000001</v>
       </c>
       <c r="N10">
-        <v>0.440561938305941</v>
+        <v>2.162955</v>
       </c>
       <c r="O10">
-        <v>0.1163499727983666</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="P10">
-        <v>0.1163499727983666</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="Q10">
-        <v>50.02897170423872</v>
+        <v>91.06541153918334</v>
       </c>
       <c r="R10">
-        <v>50.02897170423872</v>
+        <v>819.5887038526502</v>
       </c>
       <c r="S10">
-        <v>0.03427765411061356</v>
+        <v>0.04663322897007074</v>
       </c>
       <c r="T10">
-        <v>0.03427765411061356</v>
+        <v>0.04663322897007074</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.1663210839279</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H11">
-        <v>61.1663210839279</v>
+        <v>378.92083</v>
       </c>
       <c r="I11">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J11">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.399451290637182</v>
+        <v>3.387303666666666</v>
       </c>
       <c r="N11">
-        <v>0.399451290637182</v>
+        <v>10.161911</v>
       </c>
       <c r="O11">
-        <v>0.1054928779790186</v>
+        <v>0.7203810354238886</v>
       </c>
       <c r="P11">
-        <v>0.1054928779790186</v>
+        <v>0.7203810354238885</v>
       </c>
       <c r="Q11">
-        <v>24.43296590050328</v>
+        <v>427.8399722784589</v>
       </c>
       <c r="R11">
-        <v>24.43296590050328</v>
+        <v>3850.55975050613</v>
       </c>
       <c r="S11">
-        <v>0.01674039512514924</v>
+        <v>0.2190904214079722</v>
       </c>
       <c r="T11">
-        <v>0.01674039512514924</v>
+        <v>0.2190904214079722</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>61.1663210839279</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H12">
-        <v>61.1663210839279</v>
+        <v>378.92083</v>
       </c>
       <c r="I12">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J12">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.94651054678161</v>
+        <v>0.1167496666666667</v>
       </c>
       <c r="N12">
-        <v>2.94651054678161</v>
+        <v>0.350249</v>
       </c>
       <c r="O12">
-        <v>0.7781571492226148</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="P12">
-        <v>0.7781571492226148</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="Q12">
-        <v>180.2272101816239</v>
+        <v>14.74629353185222</v>
       </c>
       <c r="R12">
-        <v>180.2272101816239</v>
+        <v>132.71664178667</v>
       </c>
       <c r="S12">
-        <v>0.1234837687340102</v>
+        <v>0.007551355351146143</v>
       </c>
       <c r="T12">
-        <v>0.1234837687340102</v>
+        <v>0.007551355351146143</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>61.1663210839279</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H13">
-        <v>61.1663210839279</v>
+        <v>378.92083</v>
       </c>
       <c r="I13">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J13">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.440561938305941</v>
+        <v>0.4770616666666667</v>
       </c>
       <c r="N13">
-        <v>0.440561938305941</v>
+        <v>1.431185</v>
       </c>
       <c r="O13">
-        <v>0.1163499727983666</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="P13">
-        <v>0.1163499727983666</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="Q13">
-        <v>26.94755297577882</v>
+        <v>60.25620089817223</v>
       </c>
       <c r="R13">
-        <v>26.94755297577882</v>
+        <v>542.3058080835501</v>
       </c>
       <c r="S13">
-        <v>0.01846327974702148</v>
+        <v>0.03085629511641744</v>
       </c>
       <c r="T13">
-        <v>0.01846327974702148</v>
+        <v>0.03085629511641744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>61.180387</v>
+      </c>
+      <c r="H14">
+        <v>183.541161</v>
+      </c>
+      <c r="I14">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J14">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7209850000000001</v>
+      </c>
+      <c r="N14">
+        <v>2.162955</v>
+      </c>
+      <c r="O14">
+        <v>0.1533325535399077</v>
+      </c>
+      <c r="P14">
+        <v>0.1533325535399077</v>
+      </c>
+      <c r="Q14">
+        <v>44.110141321195</v>
+      </c>
+      <c r="R14">
+        <v>396.991271890755</v>
+      </c>
+      <c r="S14">
+        <v>0.02258814060537558</v>
+      </c>
+      <c r="T14">
+        <v>0.02258814060537558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>61.180387</v>
+      </c>
+      <c r="H15">
+        <v>183.541161</v>
+      </c>
+      <c r="I15">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J15">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.387303666666666</v>
+      </c>
+      <c r="N15">
+        <v>10.161911</v>
+      </c>
+      <c r="O15">
+        <v>0.7203810354238886</v>
+      </c>
+      <c r="P15">
+        <v>0.7203810354238885</v>
+      </c>
+      <c r="Q15">
+        <v>207.2365492131856</v>
+      </c>
+      <c r="R15">
+        <v>1865.128942918671</v>
+      </c>
+      <c r="S15">
+        <v>0.1061227230743648</v>
+      </c>
+      <c r="T15">
+        <v>0.1061227230743648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>61.180387</v>
+      </c>
+      <c r="H16">
+        <v>183.541161</v>
+      </c>
+      <c r="I16">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J16">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1167496666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.350249</v>
+      </c>
+      <c r="O16">
+        <v>0.02482926068494219</v>
+      </c>
+      <c r="P16">
+        <v>0.02482926068494219</v>
+      </c>
+      <c r="Q16">
+        <v>7.142789788787667</v>
+      </c>
+      <c r="R16">
+        <v>64.285108099089</v>
+      </c>
+      <c r="S16">
+        <v>0.003657715328748028</v>
+      </c>
+      <c r="T16">
+        <v>0.003657715328748028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>61.180387</v>
+      </c>
+      <c r="H17">
+        <v>183.541161</v>
+      </c>
+      <c r="I17">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J17">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4770616666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.431185</v>
+      </c>
+      <c r="O17">
+        <v>0.1014571503512615</v>
+      </c>
+      <c r="P17">
+        <v>0.1014571503512615</v>
+      </c>
+      <c r="Q17">
+        <v>29.18681738953167</v>
+      </c>
+      <c r="R17">
+        <v>262.681356505785</v>
+      </c>
+      <c r="S17">
+        <v>0.0149461306464094</v>
+      </c>
+      <c r="T17">
+        <v>0.0149461306464094</v>
       </c>
     </row>
   </sheetData>
